--- a/term/ValueSet-KLNursingAreasFSIII.xlsx
+++ b/term/ValueSet-KLNursingAreasFSIII.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T15:43:23+02:00</t>
+    <t>2023-04-28T21:13:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLNursingAreasFSIII.xlsx
+++ b/term/ValueSet-KLNursingAreasFSIII.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T21:13:26+02:00</t>
+    <t>2023-05-07T23:02:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLNursingAreasFSIII.xlsx
+++ b/term/ValueSet-KLNursingAreasFSIII.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:02:44+02:00</t>
+    <t>2023-05-09T23:50:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLNursingAreasFSIII.xlsx
+++ b/term/ValueSet-KLNursingAreasFSIII.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-09T23:50:17+02:00</t>
+    <t>2023-06-07T11:52:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLNursingAreasFSIII.xlsx
+++ b/term/ValueSet-KLNursingAreasFSIII.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-07T11:52:14+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,10 +260,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/term/ValueSet-KLNursingAreasFSIII.xlsx
+++ b/term/ValueSet-KLNursingAreasFSIII.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-01T22:25:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -94,6 +94,42 @@
   </si>
   <si>
     <t>Concept</t>
+  </si>
+  <si>
+    <t>94e9c867-fbc8-4d35-8596-e6b8765b12e8</t>
+  </si>
+  <si>
+    <t>55670b1e-7a36-46b2-8712-b7536237f22d</t>
+  </si>
+  <si>
+    <t>9162d29a-1c7f-4585-8145-8fb4f1a999e3</t>
+  </si>
+  <si>
+    <t>fa6aa904-d06e-4029-b4c4-13ead04ace27</t>
+  </si>
+  <si>
+    <t>3f00a76f-8e7b-4b13-80cc-f2ceef4e51d1</t>
+  </si>
+  <si>
+    <t>01150cdb-6098-48ce-bb61-60967f6bcc37</t>
+  </si>
+  <si>
+    <t>1bb534f3-e526-41a9-b9c3-6157ea19c915</t>
+  </si>
+  <si>
+    <t>cc377732-7f14-49b7-8940-1aa07b8884e7</t>
+  </si>
+  <si>
+    <t>25dcedb3-7149-4ef9-a2c3-be30267441fb</t>
+  </si>
+  <si>
+    <t>045fa500-35b0-46b7-97dd-adb60888a8ea</t>
+  </si>
+  <si>
+    <t>8c539fd9-7f31-4b4e-8b30-8298c8ab640f</t>
+  </si>
+  <si>
+    <t>5bfe4bda-2358-41da-946e-1fdaa33d5fe8</t>
   </si>
   <si>
     <t>I9</t>
@@ -397,7 +433,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -491,16 +527,88 @@
       <c r="A14" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>39</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>41</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/term/ValueSet-KLNursingAreasFSIII.xlsx
+++ b/term/ValueSet-KLNursingAreasFSIII.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-01T22:25:19+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Kommunernes Landsforening (http://kl.dk)</t>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -94,42 +94,6 @@
   </si>
   <si>
     <t>Concept</t>
-  </si>
-  <si>
-    <t>94e9c867-fbc8-4d35-8596-e6b8765b12e8</t>
-  </si>
-  <si>
-    <t>55670b1e-7a36-46b2-8712-b7536237f22d</t>
-  </si>
-  <si>
-    <t>9162d29a-1c7f-4585-8145-8fb4f1a999e3</t>
-  </si>
-  <si>
-    <t>fa6aa904-d06e-4029-b4c4-13ead04ace27</t>
-  </si>
-  <si>
-    <t>3f00a76f-8e7b-4b13-80cc-f2ceef4e51d1</t>
-  </si>
-  <si>
-    <t>01150cdb-6098-48ce-bb61-60967f6bcc37</t>
-  </si>
-  <si>
-    <t>1bb534f3-e526-41a9-b9c3-6157ea19c915</t>
-  </si>
-  <si>
-    <t>cc377732-7f14-49b7-8940-1aa07b8884e7</t>
-  </si>
-  <si>
-    <t>25dcedb3-7149-4ef9-a2c3-be30267441fb</t>
-  </si>
-  <si>
-    <t>045fa500-35b0-46b7-97dd-adb60888a8ea</t>
-  </si>
-  <si>
-    <t>8c539fd9-7f31-4b4e-8b30-8298c8ab640f</t>
-  </si>
-  <si>
-    <t>5bfe4bda-2358-41da-946e-1fdaa33d5fe8</t>
   </si>
   <si>
     <t>I9</t>
@@ -433,7 +397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,88 +491,16 @@
       <c r="A14" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="B15" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/term/ValueSet-KLNursingAreasFSIII.xlsx
+++ b/term/ValueSet-KLNursingAreasFSIII.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-03T10:45:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -94,6 +94,42 @@
   </si>
   <si>
     <t>Concept</t>
+  </si>
+  <si>
+    <t>94e9c867-fbc8-4d35-8596-e6b8765b12e8</t>
+  </si>
+  <si>
+    <t>55670b1e-7a36-46b2-8712-b7536237f22d</t>
+  </si>
+  <si>
+    <t>9162d29a-1c7f-4585-8145-8fb4f1a999e3</t>
+  </si>
+  <si>
+    <t>fa6aa904-d06e-4029-b4c4-13ead04ace27</t>
+  </si>
+  <si>
+    <t>3f00a76f-8e7b-4b13-80cc-f2ceef4e51d1</t>
+  </si>
+  <si>
+    <t>01150cdb-6098-48ce-bb61-60967f6bcc37</t>
+  </si>
+  <si>
+    <t>1bb534f3-e526-41a9-b9c3-6157ea19c915</t>
+  </si>
+  <si>
+    <t>cc377732-7f14-49b7-8940-1aa07b8884e7</t>
+  </si>
+  <si>
+    <t>25dcedb3-7149-4ef9-a2c3-be30267441fb</t>
+  </si>
+  <si>
+    <t>045fa500-35b0-46b7-97dd-adb60888a8ea</t>
+  </si>
+  <si>
+    <t>8c539fd9-7f31-4b4e-8b30-8298c8ab640f</t>
+  </si>
+  <si>
+    <t>5bfe4bda-2358-41da-946e-1fdaa33d5fe8</t>
   </si>
   <si>
     <t>I9</t>
@@ -397,7 +433,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -491,16 +527,88 @@
       <c r="A14" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>39</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>41</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/term/ValueSet-KLNursingAreasFSIII.xlsx
+++ b/term/ValueSet-KLNursingAreasFSIII.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T10:45:43+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Kommunernes Landsforening (http://kl.dk)</t>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -94,42 +94,6 @@
   </si>
   <si>
     <t>Concept</t>
-  </si>
-  <si>
-    <t>94e9c867-fbc8-4d35-8596-e6b8765b12e8</t>
-  </si>
-  <si>
-    <t>55670b1e-7a36-46b2-8712-b7536237f22d</t>
-  </si>
-  <si>
-    <t>9162d29a-1c7f-4585-8145-8fb4f1a999e3</t>
-  </si>
-  <si>
-    <t>fa6aa904-d06e-4029-b4c4-13ead04ace27</t>
-  </si>
-  <si>
-    <t>3f00a76f-8e7b-4b13-80cc-f2ceef4e51d1</t>
-  </si>
-  <si>
-    <t>01150cdb-6098-48ce-bb61-60967f6bcc37</t>
-  </si>
-  <si>
-    <t>1bb534f3-e526-41a9-b9c3-6157ea19c915</t>
-  </si>
-  <si>
-    <t>cc377732-7f14-49b7-8940-1aa07b8884e7</t>
-  </si>
-  <si>
-    <t>25dcedb3-7149-4ef9-a2c3-be30267441fb</t>
-  </si>
-  <si>
-    <t>045fa500-35b0-46b7-97dd-adb60888a8ea</t>
-  </si>
-  <si>
-    <t>8c539fd9-7f31-4b4e-8b30-8298c8ab640f</t>
-  </si>
-  <si>
-    <t>5bfe4bda-2358-41da-946e-1fdaa33d5fe8</t>
   </si>
   <si>
     <t>I9</t>
@@ -433,7 +397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,88 +491,16 @@
       <c r="A14" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="B15" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/term/ValueSet-KLNursingAreasFSIII.xlsx
+++ b/term/ValueSet-KLNursingAreasFSIII.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-04T14:59:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -94,6 +94,42 @@
   </si>
   <si>
     <t>Concept</t>
+  </si>
+  <si>
+    <t>94e9c867-fbc8-4d35-8596-e6b8765b12e8</t>
+  </si>
+  <si>
+    <t>55670b1e-7a36-46b2-8712-b7536237f22d</t>
+  </si>
+  <si>
+    <t>9162d29a-1c7f-4585-8145-8fb4f1a999e3</t>
+  </si>
+  <si>
+    <t>fa6aa904-d06e-4029-b4c4-13ead04ace27</t>
+  </si>
+  <si>
+    <t>3f00a76f-8e7b-4b13-80cc-f2ceef4e51d1</t>
+  </si>
+  <si>
+    <t>01150cdb-6098-48ce-bb61-60967f6bcc37</t>
+  </si>
+  <si>
+    <t>1bb534f3-e526-41a9-b9c3-6157ea19c915</t>
+  </si>
+  <si>
+    <t>cc377732-7f14-49b7-8940-1aa07b8884e7</t>
+  </si>
+  <si>
+    <t>25dcedb3-7149-4ef9-a2c3-be30267441fb</t>
+  </si>
+  <si>
+    <t>045fa500-35b0-46b7-97dd-adb60888a8ea</t>
+  </si>
+  <si>
+    <t>8c539fd9-7f31-4b4e-8b30-8298c8ab640f</t>
+  </si>
+  <si>
+    <t>5bfe4bda-2358-41da-946e-1fdaa33d5fe8</t>
   </si>
   <si>
     <t>I9</t>
@@ -397,7 +433,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -491,16 +527,88 @@
       <c r="A14" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>39</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>41</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/term/ValueSet-KLNursingAreasFSIII.xlsx
+++ b/term/ValueSet-KLNursingAreasFSIII.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:59:10+02:00</t>
+    <t>2024-06-13T16:58:41+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLNursingAreasFSIII.xlsx
+++ b/term/ValueSet-KLNursingAreasFSIII.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from FSIII" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T16:58:41+02:00</t>
+    <t>2024-10-31T13:18:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,6 +75,12 @@
     <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -166,9 +172,6 @@
   </si>
   <si>
     <t>I6</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -308,7 +311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -410,20 +413,28 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -445,170 +456,170 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
